--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1977.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1977.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.003*"bank" + 0.002*"import" + 0.002*"may" + 0.002*"ion" + 0.002*"account" + 0.002*"export" + 0.002*"exchange" + 0.002*"ing" + 0.002*"foreign" + 0.002*"th"</t>
-  </si>
-  <si>
-    <t>0.007*"bank" + 0.006*"ing" + 0.006*"ion" + 0.006*"import" + 0.006*"exchange" + 0.005*"per" + 0.005*"export" + 0.005*"may" + 0.004*"foreign" + 0.004*"th"</t>
-  </si>
-  <si>
-    <t>0.004*"may" + 0.004*"foreign" + 0.004*"exchange" + 0.004*"ion" + 0.004*"bank" + 0.004*"import" + 0.003*"export" + 0.003*"ing" + 0.003*"per" + 0.003*"t"</t>
-  </si>
-  <si>
-    <t>0.007*"may" + 0.007*"exchange" + 0.006*"import" + 0.006*"export" + 0.006*"ion" + 0.006*"th" + 0.005*"ing" + 0.005*"bank" + 0.004*"foreign" + 0.004*"currency"</t>
-  </si>
-  <si>
-    <t>0.012*"exchange" + 0.012*"import" + 0.012*"bank" + 0.010*"ion" + 0.010*"may" + 0.010*"foreign" + 0.009*"export" + 0.009*"th" + 0.009*"per" + 0.008*"ing"</t>
+    <t>0.086*"per" + 0.061*"cent" + 0.026*"u" + 0.015*"tax" + 0.015*"republic" + 0.014*"however" + 0.011*"july" + 0.011*"banknote" + 0.010*"exceed" + 0.010*"redistribution"</t>
+  </si>
+  <si>
+    <t>0.023*"t" + 0.022*"th" + 0.022*"ion" + 0.018*"ing" + 0.015*"ly" + 0.013*"fo" + 0.013*"te" + 0.013*"ign" + 0.012*"al" + 0.012*"ed"</t>
+  </si>
+  <si>
+    <t>0.052*"bank" + 0.046*"exchange" + 0.035*"foreign" + 0.031*"currency" + 0.020*"rate" + 0.015*"payment" + 0.015*"may" + 0.014*"control" + 0.013*"must" + 0.012*"central"</t>
+  </si>
+  <si>
+    <t>0.022*"import" + 0.021*"account" + 0.021*"may" + 0.014*"country" + 0.014*"fund" + 0.014*"foreign" + 0.013*"resident" + 0.012*"investment" + 0.011*"monetary" + 0.011*"payment"</t>
+  </si>
+  <si>
+    <t>0.060*"export" + 0.053*"import" + 0.030*"gold" + 0.028*"license" + 0.014*"ry" + 0.014*"good" + 0.013*"require" + 0.012*"subject" + 0.011*"issue" + 0.011*"rhodesia"</t>
   </si>
 </sst>
 </file>
